--- a/DailyFiltered.xlsx
+++ b/DailyFiltered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,39 +503,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Holger Rune</t>
+          <t>Daniil Medvedev</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Benoit Paire</t>
+          <t>Rinky Hijikata</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="E2" t="n">
-        <v>1.212413900394629</v>
+        <v>1.094669051411177</v>
       </c>
       <c r="F2" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2" t="n">
         <v>80</v>
       </c>
-      <c r="G2" t="n">
-        <v>70</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>383</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>231.0000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>67.00000000000003</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -545,25 +549,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brandon Nakashima</t>
+          <t>Cameron Norrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kaichi Uchida</t>
+          <t>Chun Hsin Tseng</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.397538276262577</v>
+        <v>1.292823675685073</v>
       </c>
       <c r="F3" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -571,16 +575,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="J3" t="n">
-        <v>373.0000000000001</v>
+        <v>231.0000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>94.00000000000003</v>
+        <v>67.00000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -591,19 +595,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Botic Van De Zandschulp</t>
+          <t>Holger Rune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Borna Gojo</t>
+          <t>Jeffrey John Wolf</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="E4" t="n">
-        <v>1.22189191270714</v>
+        <v>1.725394168771251</v>
       </c>
       <c r="F4" t="n">
         <v>80</v>
@@ -613,14 +617,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>368</v>
+        <v>187</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -633,19 +637,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maxime Cressy</t>
+          <t>Jiri Lehecka</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jack Sock</t>
+          <t>Sumit Nagal</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="E5" t="n">
-        <v>1.978051223617346</v>
+        <v>1.286983266761605</v>
       </c>
       <c r="F5" t="n">
         <v>70</v>
@@ -655,17 +659,21 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="J5" t="n">
-        <v>60</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>382.9999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13</v>
+      </c>
+      <c r="L5" t="n">
+        <v>76.99999999999994</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -675,61 +683,65 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Karen Khachanov</t>
+          <t>Brandon Nakashima</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dominik Koepfer</t>
+          <t>Max Purcell</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="E6" t="n">
-        <v>1.300884147944676</v>
+        <v>1.542781746727497</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="J6" t="n">
-        <v>845</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>729</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L6" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cori Gauff</t>
+          <t>Frances Tiafoe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anhelina Kalinina</t>
+          <t>Christopher Eubanks</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="E7" t="n">
-        <v>1.454766158835958</v>
+        <v>1.638763078921273</v>
       </c>
       <c r="F7" t="n">
         <v>60</v>
@@ -739,17 +751,21 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="J7" t="n">
-        <v>252</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+        <v>1141</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -759,36 +775,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thanasi Kokkinakis</t>
+          <t>Botic Van De Zandschulp</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fernando Verdasco</t>
+          <t>Frances Tiafoe</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.41</v>
+        <v>1.85</v>
       </c>
       <c r="E8" t="n">
-        <v>1.420277859467641</v>
+        <v>1.724473353627158</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
         <v>60</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>1425</v>
+        <v>167</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -801,19 +817,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nuno Borges</t>
+          <t>Taylor Fritz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fabian Marozsan</t>
+          <t>Daniel Evans</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="E9" t="n">
-        <v>1.962422555604119</v>
+        <v>1.30971742761612</v>
       </c>
       <c r="F9" t="n">
         <v>60</v>
@@ -823,14 +839,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>94%</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J9" t="n">
-        <v>68</v>
+        <v>845</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -843,19 +859,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hubert Hurkacz</t>
+          <t>Felix Auger Aliassime</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Emil Ruusuvuori</t>
+          <t>Alejandro Hernandez Serrano Juan</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.47</v>
+        <v>1.02</v>
       </c>
       <c r="E10" t="n">
-        <v>1.348919746224086</v>
+        <v>1.088387376413795</v>
       </c>
       <c r="F10" t="n">
         <v>60</v>
@@ -865,106 +881,102 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="J10" t="n">
-        <v>560</v>
+        <v>506.0000000000002</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>312</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Taylor Fritz</t>
+          <t>Maria Sakkari</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alexei Popyrin</t>
+          <t>Shelby Rogers</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1.183908355393165</v>
+        <v>1.405685115960961</v>
       </c>
       <c r="F11" t="n">
         <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>1371</v>
-      </c>
-      <c r="K11" t="n">
-        <v>25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>152.9999999999999</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Facundo Bagnis</t>
+          <t>Ons Jabeur</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ernesto Escobedo</t>
+          <t>Madison Keys</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.07</v>
+        <v>1.52</v>
       </c>
       <c r="E12" t="n">
-        <v>1.263001651284177</v>
+        <v>1.221684627149353</v>
       </c>
       <c r="F12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>1273</v>
+        <v>564</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -972,41 +984,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jason Kubler</t>
+          <t>Paula Badosa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tomas Martin Etcheverry</t>
+          <t>Elizabeth Mandlik</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="E13" t="n">
-        <v>1.290148484986606</v>
+        <v>1.126984210391089</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G13" t="n">
         <v>50</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>1388</v>
+        <v>195.9999999999999</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1014,44 +1026,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Darya Kasatkina</t>
+          <t>Gijs Brouwer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Taylor Townsend</t>
+          <t>Roberto Quiroz</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="E14" t="n">
-        <v>1.142099768613643</v>
+        <v>1.600167876060333</v>
       </c>
       <c r="F14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G14" t="n">
         <v>50</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="J14" t="n">
-        <v>343</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+        <v>1801</v>
+      </c>
+      <c r="K14" t="n">
+        <v>40</v>
+      </c>
+      <c r="L14" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1061,19 +1077,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Raul Brancaccio</t>
+          <t>Alexandre Muller</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nikola Milojevic</t>
+          <t>Ernests Gulbis</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="E15" t="n">
-        <v>1.278991074421069</v>
+        <v>1.774994079180379</v>
       </c>
       <c r="F15" t="n">
         <v>50</v>
@@ -1083,14 +1099,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="J15" t="n">
-        <v>1388</v>
+        <v>302</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1103,19 +1119,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Norbert Gombos</t>
+          <t>Reilly Opelka</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Oriol Roca Batalla</t>
+          <t>Denis Kudla</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="E16" t="n">
-        <v>1.419161403995594</v>
+        <v>1.703755158142403</v>
       </c>
       <c r="F16" t="n">
         <v>50</v>
@@ -1125,20 +1141,20 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>222</v>
+        <v>143</v>
       </c>
       <c r="J16" t="n">
-        <v>2305</v>
+        <v>1833</v>
       </c>
       <c r="K16" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L16" t="n">
-        <v>468</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17">
@@ -1149,25 +1165,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Grigor Dimitrov</t>
+          <t>Karen Khachanov</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Adrian Mannarino</t>
+          <t>Yoshihito Nishioka</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="E17" t="n">
-        <v>1.376515291492427</v>
+        <v>1.444782298566176</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1175,10 +1191,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="J17" t="n">
-        <v>810</v>
+        <v>1476</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1191,43 +1207,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Andrea Vavassori</t>
+          <t>Aleksandar Kovacevic</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Geoffrey Blancaneaux</t>
+          <t>Billy Harris</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.74</v>
+        <v>1.43</v>
       </c>
       <c r="E18" t="n">
-        <v>1.93624706093976</v>
+        <v>1.456417597246433</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="J18" t="n">
-        <v>1162</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11</v>
-      </c>
-      <c r="L18" t="n">
-        <v>295</v>
-      </c>
+        <v>1476</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1237,42 +1249,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Marco Cecchinato</t>
+          <t>Jason Kubler</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Joao Domingues</t>
+          <t>Radu Albot</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="E19" t="n">
-        <v>1.447106972339357</v>
+        <v>1.253069104837811</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="J19" t="n">
-        <v>2305</v>
+        <v>1232</v>
       </c>
       <c r="K19" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L19" t="n">
-        <v>468</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20">
@@ -1283,36 +1295,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Matteo Arnaldi</t>
+          <t>Ricardas Berankis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Andrea Collarini</t>
+          <t>Facundo Bagnis</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="E20" t="n">
-        <v>1.728010264538185</v>
+        <v>1.9854213635689</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="J20" t="n">
-        <v>84</v>
+        <v>1476</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1320,24 +1332,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aslan Karatsev</t>
+          <t>Veronika Kudermetova</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mikael Ymer</t>
+          <t>Claire Liu</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="E21" t="n">
-        <v>1.829162800286223</v>
+        <v>1.344782169687554</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
@@ -1347,14 +1359,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="J21" t="n">
-        <v>532</v>
+        <v>723</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1362,24 +1374,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vanessa Andreescu Bianca</t>
+          <t>Miomir Kecmanovic</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Shelby Rogers</t>
+          <t>Brandon Nakashima</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="E22" t="n">
-        <v>1.461741971250642</v>
+        <v>1.771598265344136</v>
       </c>
       <c r="F22" t="n">
         <v>40</v>
@@ -1389,21 +1401,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="J22" t="n">
-        <v>1356</v>
-      </c>
-      <c r="K22" t="n">
-        <v>14</v>
-      </c>
-      <c r="L22" t="n">
-        <v>233</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1413,19 +1421,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alex De Minaur</t>
+          <t>Grigor Dimitrov</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yoshihito Nishioka</t>
+          <t>Sebastian Korda</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.39</v>
+        <v>1.86</v>
       </c>
       <c r="E23" t="n">
-        <v>1.363072245351531</v>
+        <v>1.896112775896909</v>
       </c>
       <c r="F23" t="n">
         <v>40</v>
@@ -1435,21 +1443,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="J23" t="n">
-        <v>1721</v>
-      </c>
-      <c r="K23" t="n">
-        <v>12</v>
-      </c>
-      <c r="L23" t="n">
-        <v>266</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1459,19 +1463,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cedrik Marcel Stebe</t>
+          <t>Strong Kirchheimer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nicolas Alvarez Varona</t>
+          <t>Nicolas Mejia</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="E24" t="n">
-        <v>1.597716776155275</v>
+        <v>1.520720008977581</v>
       </c>
       <c r="F24" t="n">
         <v>40</v>
@@ -1481,17 +1485,21 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>298</v>
+        <v>93</v>
       </c>
       <c r="J24" t="n">
-        <v>1476</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+        <v>515</v>
+      </c>
+      <c r="K24" t="n">
+        <v>28</v>
+      </c>
+      <c r="L24" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1501,19 +1509,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nino Serdarusic</t>
+          <t>Nick Kyrgios</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Stefano Travaglia</t>
+          <t>Tommy Paul</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="E25" t="n">
-        <v>1.54976485225031</v>
+        <v>1.307488779486617</v>
       </c>
       <c r="F25" t="n">
         <v>40</v>
@@ -1523,20 +1531,20 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="J25" t="n">
-        <v>2520</v>
+        <v>1721</v>
       </c>
       <c r="K25" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L25" t="n">
-        <v>380</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26">
@@ -1547,19 +1555,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Zhizhen Zhang</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Jeffrey John Wolf</t>
+          <t>Nikola Milojevic</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="E26" t="n">
-        <v>1.876617648314901</v>
+        <v>1.21764386504018</v>
       </c>
       <c r="F26" t="n">
         <v>40</v>
@@ -1569,17 +1577,21 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c r="J26" t="n">
-        <v>1476</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+        <v>1721</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12</v>
+      </c>
+      <c r="L26" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1589,19 +1601,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Dane Sweeny</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Juncheng Shang</t>
+          <t>Sam Edgar</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="E27" t="n">
-        <v>1.969643263558874</v>
+        <v>1.440211809065735</v>
       </c>
       <c r="F27" t="n">
         <v>40</v>
@@ -1611,39 +1623,43 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="J27" t="n">
-        <v>1476</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+        <v>260.0000000000006</v>
+      </c>
+      <c r="K27" t="n">
+        <v>28</v>
+      </c>
+      <c r="L27" t="n">
+        <v>60.00000000000006</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Womens</t>
+          <t>Mens</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amanda Anisimova</t>
+          <t>Vit Kopriva</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Karolina Pliskova</t>
+          <t>Andrew Paulson</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="E28" t="n">
-        <v>1.376399942665045</v>
+        <v>1.336888656868982</v>
       </c>
       <c r="F28" t="n">
         <v>40</v>
@@ -1653,14 +1669,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>35</v>
+        <v>358</v>
       </c>
       <c r="J28" t="n">
-        <v>567</v>
+        <v>2121</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1673,19 +1689,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Beatriz Haddad Maia</t>
+          <t>Emma Raducanu</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Claire Liu</t>
+          <t>Camila Osorio</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="E29" t="n">
-        <v>1.323205886720317</v>
+        <v>1.812893675048077</v>
       </c>
       <c r="F29" t="n">
         <v>40</v>
@@ -1695,17 +1711,21 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="J29" t="n">
-        <v>567</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+        <v>1356</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12</v>
+      </c>
+      <c r="L29" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1715,43 +1735,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Camilo Ugo Carabelli</t>
+          <t>Otto Virtanen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mattia Bellucci</t>
+          <t>Manuel Guinard</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.63</v>
+        <v>2.47</v>
       </c>
       <c r="E30" t="n">
-        <v>1.562715489112686</v>
+        <v>1.940912306256628</v>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
         <v>40</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="J30" t="n">
-        <v>2520</v>
-      </c>
-      <c r="K30" t="n">
-        <v>34</v>
-      </c>
-      <c r="L30" t="n">
-        <v>380</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1761,19 +1777,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ernests Gulbis</t>
+          <t>Emil Ruusuvuori</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nikolas Sanchez Izquierdo</t>
+          <t>Mikael Ymer</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.54</v>
+        <v>1.39</v>
       </c>
       <c r="E31" t="n">
-        <v>1.632738647438726</v>
+        <v>1.506228430744575</v>
       </c>
       <c r="F31" t="n">
         <v>40</v>
@@ -1783,98 +1799,106 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="J31" t="n">
-        <v>2321</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+        <v>258</v>
+      </c>
+      <c r="K31" t="n">
+        <v>62</v>
+      </c>
+      <c r="L31" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Radu Albot</t>
+          <t>Aryna Sabalenka</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
+          <t>Caroline Dolehide</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="E32" t="n">
-        <v>1.294736429109088</v>
+        <v>1.181213777196327</v>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>358</v>
+        <v>193</v>
       </c>
       <c r="J32" t="n">
-        <v>2121</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+        <v>1482</v>
+      </c>
+      <c r="K32" t="n">
+        <v>21</v>
+      </c>
+      <c r="L32" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Luciano Darderi</t>
+          <t>Donna Vekic</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Damir Dzumhur</t>
+          <t>Xiyu Wang</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="E33" t="n">
-        <v>1.396790600573789</v>
+        <v>1.635978567373284</v>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>358</v>
+        <v>55</v>
       </c>
       <c r="J33" t="n">
-        <v>2121</v>
+        <v>1115</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -1882,404 +1906,44 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mens</t>
+          <t>Womens</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Enzo Couacaud</t>
+          <t>Amy Stevens</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Keegan Smith</t>
+          <t>Milan Krish</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="E34" t="n">
-        <v>1.459335719616059</v>
+        <v>1.21730729551548</v>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="J34" t="n">
-        <v>2121</v>
+        <v>932.9999999999993</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Womens</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Simona Halep</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Anna Kalinskaya</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1.152619087447036</v>
-      </c>
-      <c r="F35" t="n">
-        <v>40</v>
-      </c>
-      <c r="G35" t="n">
-        <v>40</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>88</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1231</v>
-      </c>
-      <c r="K35" t="n">
-        <v>11</v>
-      </c>
-      <c r="L35" t="n">
-        <v>168.0000000000001</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Nick Kyrgios</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Marcos Giron</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.11026196487412</v>
-      </c>
-      <c r="F36" t="n">
-        <v>40</v>
-      </c>
-      <c r="G36" t="n">
-        <v>40</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>81</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1076</v>
-      </c>
-      <c r="K36" t="n">
-        <v>16</v>
-      </c>
-      <c r="L36" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Laslo Djere</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Andrea Pellegrino</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.681212534775806</v>
-      </c>
-      <c r="F37" t="n">
-        <v>40</v>
-      </c>
-      <c r="G37" t="n">
-        <v>40</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>358</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2121</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Dane Sweeny</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Thomas Hann</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1.33155827431614</v>
-      </c>
-      <c r="F38" t="n">
-        <v>40</v>
-      </c>
-      <c r="G38" t="n">
-        <v>40</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>218</v>
-      </c>
-      <c r="J38" t="n">
-        <v>260.0000000000006</v>
-      </c>
-      <c r="K38" t="n">
-        <v>28</v>
-      </c>
-      <c r="L38" t="n">
-        <v>60.00000000000006</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mens</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Roman Safiullin</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Kumar Mukund Sasi</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.145126313631526</v>
-      </c>
-      <c r="F39" t="n">
-        <v>40</v>
-      </c>
-      <c r="G39" t="n">
-        <v>40</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>218</v>
-      </c>
-      <c r="J39" t="n">
-        <v>260.0000000000006</v>
-      </c>
-      <c r="K39" t="n">
-        <v>28</v>
-      </c>
-      <c r="L39" t="n">
-        <v>60.00000000000006</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Womens</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Emma Raducanu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Louisa Chirico</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.428696011569223</v>
-      </c>
-      <c r="F40" t="n">
-        <v>30</v>
-      </c>
-      <c r="G40" t="n">
-        <v>30</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>93%</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>193</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1482</v>
-      </c>
-      <c r="K40" t="n">
-        <v>22</v>
-      </c>
-      <c r="L40" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Womens</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Jessica Pegula</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Daria Saville</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.273697879086802</v>
-      </c>
-      <c r="F41" t="n">
-        <v>30</v>
-      </c>
-      <c r="G41" t="n">
-        <v>30</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>86%</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>152</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1055</v>
-      </c>
-      <c r="K41" t="n">
-        <v>14</v>
-      </c>
-      <c r="L41" t="n">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Womens</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Naomi Osaka</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Qinwen Zheng</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.469414911330543</v>
-      </c>
-      <c r="F42" t="n">
-        <v>30</v>
-      </c>
-      <c r="G42" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>79%</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>52</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1166</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
